--- a/medicine/Enfance/Sylvie_Weil/Sylvie_Weil.xlsx
+++ b/medicine/Enfance/Sylvie_Weil/Sylvie_Weil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvie Weil (née à New York[1] le 12 septembre 1942[2], est une professeure et femme de lettres française. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvie Weil (née à New York le 12 septembre 1942, est une professeure et femme de lettres française. 
 Elle est la fille du mathématicien André Weil et la nièce de la philosophe Simone Weil.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille du mathématicien André Weil, elle naît aux États-Unis où ses parents avaient émigré pour fuir la persécution des Juifs d'Europe[3]. Elle passe une partie de son enfance à Sao Paolo et à Chicago et fait ses études secondaires en France. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille du mathématicien André Weil, elle naît aux États-Unis où ses parents avaient émigré pour fuir la persécution des Juifs d'Europe. Elle passe une partie de son enfance à Sao Paolo et à Chicago et fait ses études secondaires en France. 
 Agrégée de lettres classiques, elle enseigne en France et aux États-Unis, notamment à Barnard College, à Bennington College et à l'université de la Ville de New York. Ses romans pour la jeunesse ont été traduits et publiés aux États-Unis.
 C'est en apprenant à lire la Bible en hébreu qu'elle découvre Rachi, le célèbre commentateur de la Torah. Prise de passion pour l'univers du judaïsme champenois du XIe siècle, elle écrit en 2000 la vie de Rabbi Salomon ben Isaac dans Les Vendanges de Rachi.
 En 2009, elle publie Chez les Weil, un portrait croisé de son père André Weil et de sa tante Simone Weil, deux figures marquantes des idées du vingtième siècle.
